--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Week-plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -540,7 +540,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)- [ ] [Basic Data Visualization](</t>
+      <t xml:space="preserve">)
+- [ ] [Basic Data Visualization](</t>
     </r>
     <r>
       <rPr>
@@ -559,7 +560,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)- [ ] [Exploratory Data Analysis](</t>
+      <t xml:space="preserve">)
+- [ ] [Exploratory Data Analysis](</t>
     </r>
     <r>
       <rPr>
@@ -1262,6 +1264,46 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] Reading Quiz Week 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/08-graphics.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1545,43 +1587,96 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/10b-debugging.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 9]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/09.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Simulation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">For Class:
-- [ ] [Simulation](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
+    <t xml:space="preserve">For Class:
+- [ ] [Simulation](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html)
 Context: 
 - [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)
     - [Numerical Integration](../activities/11-numerical-integration.qmd)
 - [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Reading Quiz Week 11</t>
@@ -1627,6 +1722,109 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">- [ ] [Homework 10](../homework/10.qmd)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For Class:
+- [ ] [Statistical Simulation](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.youtube.com/watch?v=sTXVNbe8fto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) - ~1h long lecture on statistical model simulation
+- [ ] [The Strange Math That Predicts Almost Anything](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.youtube.com/watch?v=KZeIEiBrT_w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) - ~30 minutes, Importance of Monte Carlo Simulation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Slides](../slides/12-simulation-2.qmd)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 11]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/11.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1653,7 +1851,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">../slides-12-simulation-2.qmd</t>
+      <t xml:space="preserve">../slides/13-interactive-graphics.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1667,10 +1865,44 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Interactive Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 12]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/12.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Lists and Nested Data Structures</t>
@@ -1679,7 +1911,87 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
   </si>
   <si>
-    <t xml:space="preserve">High Performance Computing &amp; Final Part 1</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/14-lists.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 13]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/13.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Part 1</t>
   </si>
   <si>
     <t xml:space="preserve">Final Exam</t>
@@ -1713,15 +2025,6 @@
   </si>
   <si>
     <t xml:space="preserve">Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midnight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hwk resub deadline</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -1904,17 +2207,17 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="101.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="33.67"/>
@@ -1922,7 +2225,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="236.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1980,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="251.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="169.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2009,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="376.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="1" customFormat="true" ht="233.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -2038,7 +2341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="342.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="245.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -2067,7 +2370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="422.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="326.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -2096,7 +2399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="387.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="259.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2125,7 +2428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="365.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="236.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2154,7 +2457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="331.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="245.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -2170,12 +2473,20 @@
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2183,18 +2494,18 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="502.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="382.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2202,22 +2513,28 @@
         <v>45958</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="183.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2225,19 +2542,28 @@
         <v>45965</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2245,15 +2571,25 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="0"/>
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2261,15 +2597,26 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -2277,11 +2624,23 @@
         <v>45993</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,27 +2651,27 @@
         <v>46000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html"/>
+    <hyperlink ref="D12" r:id="rId1" display="For Class:&#10;&#10;- [ ] [Simulation](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html)&#10;&#10;Context: &#10;&#10;- [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)&#10;    - [Numerical Integration](../activities/11-numerical-integration.qmd)&#10;&#10;- [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)&#10;&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2331,24 +2690,24 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,13 +2715,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,45 +2729,30 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>20251017</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>20251208</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2428,7 +2772,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2439,21 +2783,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2464,7 +2808,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2472,7 +2816,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2483,7 +2827,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2494,7 +2838,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2505,10 +2849,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -1667,6 +1667,104 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Lists and Nested Data Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Class:  
+- [ ] [Functional Programming](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/08-functional-prog.html) 
+- [ ] [Functional Programming (Advanced R)](http://adv-r.had.co.nz/Functional-programming.html) 
+- [ ] Optional: [Functional Programming HOWTO (Python)](https://docs.python.org/3/howto/functional.html) 
+- [ ] Optional: [Record-based Data and List Processing Strategies](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/04-xml-json-list-processing.html)     
+More practice with list processing, using JSON and XML files.    
+Context:  
+- [ ] [Why Functional Programming Should Be the Future of Software](https://spectrum.ieee.org/functional-programming) 
+- [ ] [What is a Monad?](https://www.youtube.com/watch?v=t1e8gqXLbsU) 
+- [ ] [Analyzing Data Insights for Titanic](https://angelicatiara.medium.com/analyzing-data-insights-for-titanic-dataset-1-scala-monads-and-functors-in-functional-fb94dc59b422)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/11-lists.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 10]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/10.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Simulation</t>
   </si>
   <si>
@@ -1708,7 +1806,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">../slides/11-simulation.qmd</t>
+      <t xml:space="preserve">../slides/12-simulation.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1722,7 +1820,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] [Homework 10](../homework/10.qmd)</t>
+    <t xml:space="preserve">- [ ] [Homework 11](../homework/11.qmd)</t>
   </si>
   <si>
     <r>
@@ -1892,92 +1990,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">../homework/12.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lists and Nested Data Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [Slides]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../slides/14-lists.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 13]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/13.qmd</t>
     </r>
     <r>
       <rPr>
@@ -2205,12 +2217,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2497,7 +2509,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="F10" s="0"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="169.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2544,7 +2556,7 @@
       <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2563,7 +2575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2571,25 +2583,28 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5" t="s">
         <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2597,26 +2612,25 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -2624,23 +2638,23 @@
         <v>45993</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,9 +2665,13 @@
         <v>46000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2663,15 +2681,21 @@
         <v>46008</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="For Class:&#10;&#10;- [ ] [Simulation](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html)&#10;&#10;Context: &#10;&#10;- [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)&#10;    - [Numerical Integration](../activities/11-numerical-integration.qmd)&#10;&#10;- [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)&#10;&#10;"/>
+    <hyperlink ref="D13" r:id="rId1" display="For Class:&#10;&#10;- [ ] [Simulation](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html)&#10;&#10;Context: &#10;&#10;- [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)&#10;    - [Numerical Integration](../activities/11-numerical-integration.qmd)&#10;&#10;- [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)&#10;&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2691,23 +2715,23 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="B16:D17 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,13 +2739,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,13 +2753,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2797,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="B16:D17 F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2783,21 +2807,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2808,7 +2832,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2816,7 +2840,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2827,7 +2851,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2838,7 +2862,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2849,10 +2873,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -55,7 +55,7 @@
   </si>
   <si>
     <t xml:space="preserve">For Class: 
-- [ ] Read the [syllabus](syllabus.qmd)
+- [ ] Read the [syllabus](../syllabus.qmd)
 - [ ] Read [Computer Basics](https://srvanderplas.github.io/stat-computing-r-python/part-tools/01-computer-basics.html)
 - [ ] Read [Setting up your Computer](https://srvanderplas.github.io/stat-computing-r-python/part-tools/02-setting-up-computer.html)
 - [ ] Read [Rstudio’s Interface](https://srvanderplas.github.io/stat-computing-r-python/part-tools/03-Rstudio-interface.html)
@@ -1466,8 +1466,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)
-- [ ] [Opinionated Analysis Development](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16973344600006387?auth=SAML) (Recommended)
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Optional)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Opinionated Analysis Development](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16973344600006387?auth=SAML) (Recommended)
 - How important is long-term reproducibility?  
 - How do the two articles differ with respect to types of reproducibility?   
 - What attempts at reproducibility worked and didn't work in each article?  
@@ -1573,7 +1590,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">../slides/10a-latex-markdown.qmd</t>
+      <t xml:space="preserve">../slides/10a-debugging.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1613,7 +1630,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">../slides/10b-debugging.qmd</t>
+      <t xml:space="preserve">../slides/10b-reproducibility.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1627,59 +1644,52 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 9]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/09.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Lists and Nested Data Structures</t>
   </si>
   <si>
-    <t xml:space="preserve">For Class:  
-- [ ] [Functional Programming](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/08-functional-prog.html) 
-- [ ] [Functional Programming (Advanced R)](http://adv-r.had.co.nz/Functional-programming.html) 
-- [ ] Optional: [Functional Programming HOWTO (Python)](https://docs.python.org/3/howto/functional.html) 
-- [ ] Optional: [Record-based Data and List Processing Strategies](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/04-xml-json-list-processing.html)     
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For Class:  
+- [ ] [Functional Programming](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/08-functional-prog.html)
 More practice with list processing, using JSON and XML files.    
 Context:  
-- [ ] [Why Functional Programming Should Be the Future of Software](https://spectrum.ieee.org/functional-programming) 
-- [ ] [What is a Monad?](https://www.youtube.com/watch?v=t1e8gqXLbsU) 
-- [ ] [Analyzing Data Insights for Titanic](https://angelicatiara.medium.com/analyzing-data-insights-for-titanic-dataset-1-scala-monads-and-functors-in-functional-fb94dc59b422)  </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- [ ] [Functional Programming (Advanced R)](http://adv-r.had.co.nz/Functional-programming.html) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Why Functional Programming Should Be the Future of Software](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174391540006387?auth=SAML) 
+- [ ] [What is a Monad?](https://www.youtube.com/watch?v=t1e8gqXLbsU) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- [ ] Optional: [Functional Programming HOWTO (Python)](https://docs.python.org/3/howto/functional.html) 
+- [ ] Optional: [Record-based Data and List Processing Strategies](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/04-xml-json-list-processing.html)     </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
@@ -1712,46 +1722,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">../slides/11-lists.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 10]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/10.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1774,10 +1744,132 @@
 - [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)
     - [Numerical Integration](../activities/11-numerical-integration.qmd)
 - [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)
+Probability Theory and Monte Carlohttps://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML (This uses Excel for computing, which sucks, but it is also a decent explanation of the process)](- [
+- [Input Analysis](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML) ) (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/12-simulation.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">For Class:  
+- [ ] [Monte Carlo Simulation](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174409750006387?auth=SAML) 
+- [ ] [Probability Theory Shown by Simulation](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174410770006387?auth=SAML) (Optional) 
+- [ ] [Resampling Methods](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174411360006387?auth=SAML) (Optional)  
+Historically, students have a very hard time with the simulation question on the statistics qualifier. I’m experimenting this year with some ways to reinforce this material, despite the fact that you’ll be asked to apply simulation to models and use cases you may not have learned yet, since Stat 850 is taken during your first semester. [This book](https://learning.oreilly.com/library/view/simulation-for-data/9781785881169/?sso_link=yes&amp;sso_link_from=unl-edu) is a good resource for you to keep in mind when studying for the qualifying exam and is available online for free through the library.   
+Other Resources:  
+- [ ] [Statistical Simulation](https://www.youtube.com/watch?v= sTXVNbe8fto) - ~1h long lecture on statistical model simulation 
+- [ ] [The Strange Math That Predicts Almost Anything](https://www.youtube.com/watch?v=KZeIEiBrT_w) - ~30 minutes, Importance of Monte Carlo Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Slides](../slides/12-simulation-2.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanksgiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy a break!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Class – Thanksgiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive Graphics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For Class:
+- [ ] [Animated and Interactive Graphics](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/07-intro-interactive-graphics.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Context: 
+- [ ] [Reddit thread on professional web app frameworks vs. Shiny](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.reddit.com/r/rstats/comments/1j0b9mj/as_an_r_shiny_user_seeing_professional_web_apps/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 11</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
   </si>
   <si>
     <r>
@@ -1806,7 +1898,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">../slides/12-simulation.qmd</t>
+      <t xml:space="preserve">../slides/13-interactive-graphics.qmd</t>
     </r>
     <r>
       <rPr>
@@ -1820,196 +1912,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] [Homework 11](../homework/11.qmd)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">For Class:
-- [ ] [Statistical Simulation](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.youtube.com/watch?v=sTXVNbe8fto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) - ~1h long lecture on statistical model simulation
-- [ ] [The Strange Math That Predicts Almost Anything](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.youtube.com/watch?v=KZeIEiBrT_w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) - ~30 minutes, Importance of Monte Carlo Simulation</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">- [Slides](../slides/12-simulation-2.qmd)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 11]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/11.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [Slides]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../slides/13-interactive-graphics.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 12]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/12.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Final Part 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Everything!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Final Exam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everything!</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -2076,7 +1985,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2119,6 +2028,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2163,7 +2077,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2196,6 +2110,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2220,9 +2142,9 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16:D17"/>
+      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2266,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="236.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="231.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -2295,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="169.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="181.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2353,7 +2275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="245.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="248" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -2517,7 +2439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="382.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="393.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2542,11 +2464,8 @@
       <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="169.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2554,28 +2473,25 @@
         <v>45965</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="68.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2583,28 +2499,25 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="135.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2612,91 +2525,105 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>45993</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="9" t="n">
+        <v>45986</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
+        <v>76</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>46008</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" display="For Class:&#10;&#10;- [ ] [Simulation](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/01-simulation.html)&#10;&#10;Context: &#10;&#10;- [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)&#10;    - [Numerical Integration](../activities/11-numerical-integration.qmd)&#10;&#10;- [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)&#10;&#10;"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2715,63 +2642,63 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="B16:D17 B19"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>20251023</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>20251217</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2797,7 +2724,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="B16:D17 F28"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2807,21 +2734,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2832,7 +2759,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2840,7 +2767,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2851,7 +2778,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2862,7 +2789,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2873,10 +2800,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -1466,25 +1466,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Optional)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Opinionated Analysis Development](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16973344600006387?auth=SAML) (Recommended)
+      <t xml:space="preserve">)  (Optional)
+- [ ] [Opinionated Analysis Development](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16973344600006387?auth=SAML) (Recommended)
 - How important is long-term reproducibility?  
 - How do the two articles differ with respect to types of reproducibility?   
 - What attempts at reproducibility worked and didn't work in each article?  
@@ -1647,49 +1630,15 @@
     <t xml:space="preserve">Lists and Nested Data Structures</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">For Class:  
+    <t xml:space="preserve">For Class:  
 - [ ] [Functional Programming](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/08-functional-prog.html)
 More practice with list processing, using JSON and XML files.    
 Context:  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 - [ ] [Functional Programming (Advanced R)](http://adv-r.had.co.nz/Functional-programming.html) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Why Functional Programming Should Be the Future of Software](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174391540006387?auth=SAML) 
-- [ ] [What is a Monad?](https://www.youtube.com/watch?v=t1e8gqXLbsU) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
+- [ ] [Why Functional Programming Should Be the Future of Software](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174391540006387?auth=SAML) 
+- [ ] [What is a Monad?](https://www.youtube.com/watch?v=t1e8gqXLbsU)  
 - [ ] Optional: [Functional Programming HOWTO (Python)](https://docs.python.org/3/howto/functional.html) 
 - [ ] Optional: [Record-based Data and List Processing Strategies](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/04-xml-json-list-processing.html)     </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
@@ -1845,26 +1794,15 @@
       </rPr>
       <t xml:space="preserve">)
 Context: 
-- [ ] [Reddit thread on professional web app frameworks vs. Shiny](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.reddit.com/r/rstats/comments/1j0b9mj/as_an_r_shiny_user_seeing_professional_web_apps/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
+- [The Tiger Mom Tax](https://www.propublica.org/article/asians-nearly-twice-as-likely-to-get-higher-price-from-princeton-review)
+- [Rent Going Up? One Company's Algorithm Could Be Why](https://www.propublica.org/article/yieldstar-rent-increase-realpage-rent)
+- [Racial Discrimination in Face Recognition Technology](https://sitn.hms.harvard.edu/flash/2020/racial-discrimination-in-face-recognition-technology/)
+- [Machine Bias](https://www.propublica.org/article/machine-bias-risk-assessments-in-criminal-sentencing)
+Think about: 
+- When is it ethical to use an algorithm to make decisions?
+- When is it unethical to use an algorithm to make decisions?
+- What conditions need to exist for an algorithm to be trustworthy?
+- How do you, as a statistician, ensure that you understand the biases in your models?
 </t>
     </r>
   </si>
@@ -1985,7 +1923,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2028,11 +1966,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2077,7 +2010,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2110,14 +2043,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2141,10 +2066,10 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2527,7 +2452,7 @@
       <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2544,26 +2469,25 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="113.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -2641,7 +2565,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2665,7 +2589,7 @@
       <c r="A2" s="1" t="n">
         <v>20251023</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2679,7 +2603,7 @@
       <c r="A3" s="1" t="n">
         <v>20251217</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2691,14 +2615,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2723,7 +2647,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -135,7 +135,8 @@
 - [ ] [How Integers and Floats Work, by Julia Evans](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16972919280006387?auth=SAML) (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 2</t>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 2
+- [ ] Reading Quiz Week 2.5</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Work through the examples in the textbook</t>
@@ -282,7 +283,8 @@
 - If you are planning to ignore one or more workflows, when (if ever) do you think you will want or need to learn them?</t>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 3</t>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 3
+- [ ] Reading Quiz Week 3.5</t>
   </si>
   <si>
     <t xml:space="preserve">- [Slides](../slides/03-fizzing-and-buzzing.qmd)</t>
@@ -998,7 +1000,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Data Transformations</t>
+    <t xml:space="preserve">Data Joins &amp;Transformations</t>
   </si>
   <si>
     <r>
@@ -1355,7 +1357,7 @@
     <t xml:space="preserve">Midterm Exam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reproducibility, Reproducible Examples, and Advanced Quarto</t>
+    <t xml:space="preserve">Reproducibility &amp; Documents</t>
   </si>
   <si>
     <r>
@@ -1468,6 +1470,7 @@
       </rPr>
       <t xml:space="preserve">)  (Optional)
 - [ ] [Opinionated Analysis Development](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/16973344600006387?auth=SAML) (Recommended)
+Think about: 
 - How important is long-term reproducibility?  
 - How do the two articles differ with respect to types of reproducibility?   
 - What attempts at reproducibility worked and didn't work in each article?  
@@ -1627,7 +1630,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Lists and Nested Data Structures</t>
+    <t xml:space="preserve">Functional Programming</t>
   </si>
   <si>
     <t xml:space="preserve">For Class:  
@@ -1641,7 +1644,7 @@
 - [ ] Optional: [Record-based Data and List Processing Strategies](https://srvanderplas.github.io/stat-computing-r-python/part-advanced-topics/04-xml-json-list-processing.html)     </t>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 14</t>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 11</t>
   </si>
   <si>
     <r>
@@ -1693,11 +1696,11 @@
 - [Free Wifi with Randomness](https://articles.foletta.org/post/random-wifi-password/)
     - [Numerical Integration](../activities/11-numerical-integration.qmd)
 - [Seductions of Sim - Policy as a Simulation Game](https://www.princeton.edu/~starr/17star.html)
-Probability Theory and Monte Carlohttps://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML (This uses Excel for computing, which sucks, but it is also a decent explanation of the process)](- [
-- [Input Analysis](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML) ) (Optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 11</t>
+- [Probability Theory and Monte Carlo](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML) (This uses Excel for computing, which sucks, but it is also a decent explanation of the process)
+- [Input Analysis](https://unl.alma.exlibrisgroup.com/leganto/public/01UON_LINC/citation/17174402200006387?auth=SAML)  (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 12</t>
   </si>
   <si>
     <r>
@@ -1748,6 +1751,9 @@
 Other Resources:  
 - [ ] [Statistical Simulation](https://www.youtube.com/watch?v= sTXVNbe8fto) - ~1h long lecture on statistical model simulation 
 - [ ] [The Strange Math That Predicts Almost Anything](https://www.youtube.com/watch?v=KZeIEiBrT_w) - ~30 minutes, Importance of Monte Carlo Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
   </si>
   <si>
     <t xml:space="preserve">- [Slides](../slides/12-simulation-2.qmd)</t>
@@ -1807,7 +1813,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
+    <t xml:space="preserve">- [ ] Reading Quiz Week 15</t>
   </si>
   <si>
     <r>
@@ -2067,9 +2073,9 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2155,7 +2161,7 @@
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2184,7 +2190,7 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2287,7 +2293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="236.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="393.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="437.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="68.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2455,14 +2461,17 @@
       <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,17 +2482,17 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2495,22 +2504,22 @@
         <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2522,10 +2531,10 @@
         <v>46000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2540,10 +2549,10 @@
         <v>46008</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2573,16 +2582,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,13 +2599,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,13 +2613,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,21 +2667,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2683,7 +2692,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2691,7 +2700,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2702,7 +2711,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2713,7 +2722,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2724,10 +2733,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -287,7 +287,10 @@
 - [ ] Reading Quiz Week 3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">- [Slides](../slides/03-fizzing-and-buzzing.qmd)</t>
+    <t xml:space="preserve">- [Slides](../slides/03a-fizzing-and-buzzing.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Slides](../slides/03b-fizzing-and-buzzing.qmd)</t>
   </si>
   <si>
     <r>
@@ -2072,10 +2075,10 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2200,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="248" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,25 +2217,25 @@
         <v>45916</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="326.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,25 +2246,25 @@
         <v>45923</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="259.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,25 +2275,25 @@
         <v>45930</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,25 +2304,25 @@
         <v>45937</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="245.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,25 +2333,25 @@
         <v>45944</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,15 +2362,15 @@
         <v>45951</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="437.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,22 +2381,22 @@
         <v>45958</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,22 +2407,22 @@
         <v>45965</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,22 +2433,22 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,22 +2459,22 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,17 +2485,17 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2504,22 +2507,22 @@
         <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2531,10 +2534,10 @@
         <v>46000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2549,10 +2552,10 @@
         <v>46008</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2582,16 +2585,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,13 +2602,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,13 +2616,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,21 +2670,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2700,7 +2703,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2711,7 +2714,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2733,10 +2736,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -1311,44 +1311,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [ ] [Homework 8]</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">../homework/08.qmd</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">- [ ] [Homework 8](../homework/08.qmd)
+- [ ] [Review Learning objectives for Midterm](../exams/mideterm-learning-objectives.qmd)
+- [ ] [Practice Midterm 1](../homework/practice-midterm1.qmd) 
+- [ ] [Practice Midterm 2](../homework/practice-midterm2.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">Fall Break &amp; Midterm Exam</t>
@@ -2075,10 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F8" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -1312,7 +1312,7 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] [Homework 8](../homework/08.qmd)
-- [ ] [Review Learning objectives for Midterm](../exams/mideterm-learning-objectives.qmd)
+- [ ] [Review Learning objectives for Midterm](../exams/midterm-learning-objectives.qmd)
 - [ ] [Practice Midterm 1](../homework/practice-midterm1.qmd) 
 - [ ] [Practice Midterm 2](../homework/practice-midterm2.qmd)</t>
   </si>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -1586,6 +1586,46 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">../slides/10b-reproducibility.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 10]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/10.qmd</t>
     </r>
     <r>
       <rPr>
@@ -2041,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F8" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2362,6 +2402,9 @@
       <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -2371,22 +2414,22 @@
         <v>45965</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,22 +2440,22 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,22 +2466,22 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,17 +2492,17 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2471,22 +2514,22 @@
         <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2498,10 +2541,10 @@
         <v>46000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2516,10 +2559,10 @@
         <v>46008</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2549,16 +2592,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,13 +2609,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,13 +2623,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,21 +2677,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2659,7 +2702,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2667,7 +2710,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2678,7 +2721,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2689,7 +2732,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2700,10 +2743,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -1324,6 +1324,46 @@
   </si>
   <si>
     <t xml:space="preserve">Midterm Exam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Look at the ugly charts y'all made!]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../activities/ugly-graphics.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Reproducibility &amp; Documents</t>
@@ -2082,7 +2122,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2358,7 +2398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2376,6 +2416,9 @@
       <c r="H10" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="437.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -2385,25 +2428,25 @@
         <v>45958</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,22 +2457,22 @@
         <v>45965</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,22 +2483,22 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,22 +2509,22 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,17 +2535,17 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2514,22 +2557,22 @@
         <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2541,10 +2584,10 @@
         <v>46000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2559,10 +2602,10 @@
         <v>46008</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2592,16 +2635,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,13 +2652,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +2666,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,21 +2720,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2702,7 +2745,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2710,7 +2753,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2721,7 +2764,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2732,7 +2775,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2743,10 +2786,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -1723,6 +1723,46 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">../slides/11-lists.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 11]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/11.qmd</t>
     </r>
     <r>
       <rPr>
@@ -2121,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2474,6 +2514,9 @@
       <c r="H12" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -2483,22 +2526,22 @@
         <v>45972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,22 +2552,22 @@
         <v>45979</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,17 +2578,17 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2557,22 +2600,22 @@
         <v>45993</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2584,10 +2627,10 @@
         <v>46000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2602,10 +2645,10 @@
         <v>46008</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2635,16 +2678,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,13 +2695,13 @@
         <v>20251023</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,13 +2709,13 @@
         <v>20251217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,21 +2763,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250825</v>
@@ -2745,7 +2788,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250901</v>
@@ -2753,7 +2796,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20251020</v>
@@ -2764,7 +2807,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20251126</v>
@@ -2775,7 +2818,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20251215</v>
@@ -2786,10 +2829,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -1902,9 +1902,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Reading Quiz Week 15</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1932,6 +1929,46 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">../slides/13-interactive-graphics.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Shiny Cocktails]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../homework/13.qmd</t>
     </r>
     <r>
       <rPr>
@@ -2161,8 +2198,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D15" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2605,19 +2642,18 @@
       <c r="D16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2670,7 +2706,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2752,7 +2788,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
